--- a/docs/excel/TLoadingText.xlsx
+++ b/docs/excel/TLoadingText.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingText" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "TexasRoom" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>输赢无法控制，但是你可以控制输赢的多寡！</t>
+  </si>
+  <si>
+    <t>TableName: "LoadingText" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2063,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2076,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
